--- a/original_data/country.xlsx
+++ b/original_data/country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungyeonhan/Documents/GitHub/FinalExam_VA/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iness\OneDrive\Ambiente de Trabalho\Master\Master Data Science\First Semester\Visual Analytics\Exam\FinalExam_VA\original_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD91D8D-9B29-E04C-BCD2-6C860E94296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DDA9A-9FAF-4E48-B960-AB3215974A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -1703,9 +1703,6 @@
     <t>Congo, Democratic Republic of the</t>
   </si>
   <si>
-    <t>ZAR</t>
-  </si>
-  <si>
     <t>Congo (Kinshasa)</t>
   </si>
   <si>
@@ -1764,15 +1761,25 @@
   </si>
   <si>
     <t>ROU</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1806,8 +1813,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,16 +2133,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1EAFB1-A9CD-0C49-B612-1C17B69961CD}">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +2226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +2254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2288,7 +2296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2372,7 +2380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2428,9 +2436,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2442,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2484,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2512,7 +2520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2554,7 +2562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2652,7 +2660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2666,7 +2674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -2694,7 +2702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
@@ -2708,7 +2716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2722,7 +2730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>99</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -2764,7 +2772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>106</v>
       </c>
@@ -2778,7 +2786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -2792,9 +2800,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -2806,7 +2814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2862,7 +2870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>115</v>
       </c>
@@ -2876,9 +2884,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B54" t="s">
         <v>118</v>
@@ -2890,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
@@ -2918,7 +2926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
@@ -2974,7 +2982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -3016,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -3072,7 +3080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -3086,7 +3094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -3114,7 +3122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
@@ -3128,7 +3136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -3198,7 +3206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
@@ -3226,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
@@ -3240,7 +3248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>164</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
@@ -3268,7 +3276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
@@ -3282,7 +3290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>176</v>
       </c>
@@ -3338,7 +3346,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -3394,7 +3402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
@@ -3408,7 +3416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>188</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>194</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>196</v>
       </c>
@@ -3506,7 +3514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -3534,7 +3542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>201</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
@@ -3562,7 +3570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
@@ -3576,7 +3584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
@@ -3590,7 +3598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>209</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -3618,7 +3626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
@@ -3632,7 +3640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -3646,7 +3654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>217</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -3688,7 +3696,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -3730,7 +3738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
@@ -3758,7 +3766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
@@ -3814,7 +3822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
@@ -3828,7 +3836,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>239</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>243</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -3898,7 +3906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>245</v>
       </c>
@@ -3912,7 +3920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>246</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>248</v>
       </c>
@@ -3940,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>250</v>
       </c>
@@ -3954,7 +3962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>252</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>254</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>256</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>258</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>260</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>262</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>265</v>
       </c>
@@ -4052,7 +4060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>267</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>269</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>269</v>
       </c>
@@ -4094,7 +4102,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>270</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>272</v>
       </c>
@@ -4122,7 +4130,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>274</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>276</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>277</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>279</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>280</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>281</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>282</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>283</v>
       </c>
@@ -4234,7 +4242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>285</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>287</v>
       </c>
@@ -4276,7 +4284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
@@ -4290,7 +4298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>291</v>
       </c>
@@ -4304,7 +4312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>292</v>
       </c>
@@ -4318,7 +4326,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>293</v>
       </c>
@@ -4332,9 +4340,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B158" t="s">
         <v>290</v>
@@ -4346,7 +4354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>294</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>296</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>298</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>300</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>301</v>
       </c>
@@ -4416,7 +4424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>303</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>304</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>306</v>
       </c>
@@ -4458,7 +4466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>308</v>
       </c>
@@ -4472,7 +4480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>310</v>
       </c>
@@ -4486,7 +4494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>312</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>314</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>316</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>318</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>319</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>320</v>
       </c>
@@ -4570,7 +4578,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>321</v>
       </c>
@@ -4584,7 +4592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>323</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>325</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>327</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>329</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>330</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>331</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>332</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>334</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>336</v>
       </c>
@@ -4710,7 +4718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>338</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>340</v>
       </c>
@@ -4738,7 +4746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>342</v>
       </c>
@@ -4752,9 +4760,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
         <v>341</v>
@@ -4766,7 +4774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>343</v>
       </c>
@@ -4780,7 +4788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>344</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>345</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>346</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>347</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>348</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>343</v>
       </c>
@@ -4864,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>349</v>
       </c>
@@ -4878,7 +4886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>351</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>353</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>355</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>356</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>358</v>
       </c>
@@ -4948,7 +4956,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>360</v>
       </c>
@@ -4962,7 +4970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>362</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>364</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>366</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>368</v>
       </c>
@@ -5018,7 +5026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>370</v>
       </c>
@@ -5032,7 +5040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>372</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>374</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>376</v>
       </c>
@@ -5074,7 +5082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>378</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>380</v>
       </c>
@@ -5102,9 +5110,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B213" t="s">
         <v>383</v>
@@ -5116,7 +5124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>382</v>
       </c>
@@ -5130,7 +5138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>384</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>386</v>
       </c>
@@ -5158,7 +5166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>388</v>
       </c>
@@ -5172,7 +5180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>390</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>391</v>
       </c>
@@ -5200,7 +5208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>393</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>395</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>397</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>399</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>401</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>403</v>
       </c>
@@ -5284,7 +5292,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>405</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>407</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>409</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>411</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>412</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>413</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>414</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>415</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>416</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>418</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>420</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>422</v>
       </c>
@@ -5452,12 +5460,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B238" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C238" t="s">
         <v>10</v>
@@ -5466,7 +5474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>425</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>427</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>428</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>430</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>432</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>434</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>435</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>437</v>
       </c>
@@ -5578,7 +5586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>439</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>441</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>443</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>445</v>
       </c>
@@ -5634,7 +5642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>447</v>
       </c>
@@ -5648,7 +5656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>449</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>451</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>452</v>
       </c>
@@ -5690,7 +5698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>454</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>456</v>
       </c>
@@ -5718,7 +5726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>458</v>
       </c>
@@ -5732,7 +5740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>459</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>461</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>462</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>464</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>466</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>468</v>
       </c>
@@ -5816,7 +5824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>470</v>
       </c>
@@ -5830,7 +5838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>472</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>474</v>
       </c>
@@ -5858,7 +5866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>475</v>
       </c>
@@ -5872,7 +5880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>476</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>478</v>
       </c>
@@ -5900,7 +5908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>480</v>
       </c>
@@ -5914,7 +5922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>482</v>
       </c>
@@ -5928,7 +5936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>484</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>486</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>488</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>490</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>492</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>494</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>495</v>
       </c>
@@ -6026,9 +6034,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B279" t="s">
         <v>498</v>
@@ -6040,7 +6048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>497</v>
       </c>
@@ -6054,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>499</v>
       </c>
@@ -6068,7 +6076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>501</v>
       </c>
@@ -6082,7 +6090,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>503</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>504</v>
       </c>
@@ -6110,9 +6118,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B285" t="s">
         <v>502</v>
@@ -6124,7 +6132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>505</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>506</v>
       </c>
@@ -6152,7 +6160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>507</v>
       </c>
@@ -6166,7 +6174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>508</v>
       </c>
@@ -6180,7 +6188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>510</v>
       </c>
@@ -6194,7 +6202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>511</v>
       </c>
@@ -6208,7 +6216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>512</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>513</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>514</v>
       </c>
@@ -6250,7 +6258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>516</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>518</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>520</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>521</v>
       </c>
@@ -6306,7 +6314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>522</v>
       </c>
@@ -6320,7 +6328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>523</v>
       </c>
@@ -6334,7 +6342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>522</v>
       </c>
@@ -6348,7 +6356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>524</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>526</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>528</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>530</v>
       </c>
@@ -6404,7 +6412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>531</v>
       </c>
@@ -6418,7 +6426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>533</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>534</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>535</v>
       </c>
@@ -6460,7 +6468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>537</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>538</v>
       </c>
@@ -6488,7 +6496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>539</v>
       </c>
@@ -6502,7 +6510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>540</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>542</v>
       </c>
@@ -6530,7 +6538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>543</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>545</v>
       </c>
@@ -6558,7 +6566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>547</v>
       </c>
@@ -6572,7 +6580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>549</v>
       </c>
@@ -6586,9 +6594,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B319" t="s">
         <v>550</v>
@@ -6600,7 +6608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>551</v>
       </c>
@@ -6614,7 +6622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>552</v>
       </c>
@@ -6628,12 +6636,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B322" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C322" t="s">
         <v>18</v>
@@ -6642,12 +6650,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B323" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C323" t="s">
         <v>18</v>
@@ -6656,12 +6664,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>557</v>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="B324" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -6670,12 +6678,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>558</v>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="B325" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C325" t="s">
         <v>18</v>
@@ -6684,12 +6692,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B326" t="s">
-        <v>555</v>
+        <v>118</v>
       </c>
       <c r="C326" t="s">
         <v>18</v>
@@ -6698,12 +6706,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B327" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C327" t="s">
         <v>18</v>
@@ -6712,12 +6720,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B328" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C328" t="s">
         <v>18</v>
@@ -6726,12 +6734,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B329" t="s">
         <v>561</v>
-      </c>
-      <c r="B329" t="s">
-        <v>562</v>
       </c>
       <c r="C329" t="s">
         <v>18</v>
@@ -6740,12 +6748,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B330" t="s">
         <v>563</v>
-      </c>
-      <c r="B330" t="s">
-        <v>564</v>
       </c>
       <c r="C330" t="s">
         <v>18</v>
@@ -6754,7 +6762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
     </row>
   </sheetData>

--- a/original_data/country.xlsx
+++ b/original_data/country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iness\OneDrive\Ambiente de Trabalho\Master\Master Data Science\First Semester\Visual Analytics\Exam\FinalExam_VA\original_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungyeonhan/Documents/GitHub/FinalExam_VA/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DDA9A-9FAF-4E48-B960-AB3215974A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264436E2-D171-9842-A914-25E22A7BA3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24040" windowHeight="16000" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="573">
   <si>
     <t>Name</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Côte d'Ivoire</t>
   </si>
   <si>
-    <t>C√¥te d'Ivoire</t>
-  </si>
-  <si>
     <t>Czechia</t>
   </si>
   <si>
@@ -798,12 +795,6 @@
   </si>
   <si>
     <t>ITA</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV </t>
   </si>
   <si>
     <t>Jamaica</t>
@@ -2131,18 +2122,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1EAFB1-A9CD-0C49-B612-1C17B69961CD}">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2184,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2198,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2212,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2254,7 +2245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2268,7 +2259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2296,7 +2287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2310,7 +2301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2338,7 +2329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2352,7 +2343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2366,7 +2357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2380,7 +2371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2394,7 +2385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2408,7 +2399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2422,7 +2413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2436,9 +2427,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2450,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2464,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -2478,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2492,7 +2483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2506,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -2548,7 +2539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2562,7 +2553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2590,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -2604,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2618,7 +2609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -2632,7 +2623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -2646,7 +2637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2660,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2674,7 +2665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2688,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -2702,7 +2693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
@@ -2716,7 +2707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2730,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>99</v>
       </c>
@@ -2744,7 +2735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -2758,7 +2749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>106</v>
       </c>
@@ -2786,7 +2777,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -2800,9 +2791,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -2814,7 +2805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -2828,7 +2819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2856,26 +2847,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>567</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2884,12 +2875,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>570</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2898,12 +2889,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" t="s">
-        <v>118</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -2912,12 +2903,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -2926,54 +2917,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
         <v>125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2982,40 +2973,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -3024,12 +3015,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -3038,278 +3029,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
         <v>173</v>
-      </c>
-      <c r="B84" t="s">
-        <v>174</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3318,82 +3309,82 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
         <v>176</v>
-      </c>
-      <c r="B86" t="s">
-        <v>177</v>
       </c>
       <c r="C86" t="s">
         <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
         <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
         <v>183</v>
-      </c>
-      <c r="B90" t="s">
-        <v>184</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3402,12 +3393,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3416,12 +3407,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3430,40 +3421,40 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3472,40 +3463,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
         <v>193</v>
       </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
       <c r="D96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
         <v>196</v>
-      </c>
-      <c r="B98" t="s">
-        <v>197</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3514,12 +3505,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -3528,138 +3519,138 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
         <v>6</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" t="s">
-        <v>76</v>
-      </c>
       <c r="D104" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" t="s">
-        <v>218</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -3668,12 +3659,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -3682,12 +3673,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -3696,124 +3687,124 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
         <v>14</v>
       </c>
-      <c r="D112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" t="s">
-        <v>225</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
       <c r="D116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
         <v>14</v>
       </c>
-      <c r="D117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" t="s">
-        <v>10</v>
-      </c>
       <c r="D118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
         <v>236</v>
-      </c>
-      <c r="B120" t="s">
-        <v>237</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -3822,26 +3813,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
         <v>239</v>
-      </c>
-      <c r="B122" t="s">
-        <v>240</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -3850,12 +3841,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -3864,12 +3855,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -3878,12 +3869,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -3892,12 +3883,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -3906,231 +3897,231 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" t="s">
+        <v>254</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" t="s">
         <v>14</v>
       </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B129" t="s">
-        <v>249</v>
-      </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B130" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B131" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B132" t="s">
-        <v>255</v>
-      </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B133" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
       <c r="D133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C134" t="s">
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
         <v>265</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B139" t="s">
         <v>268</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" t="s">
         <v>272</v>
       </c>
-      <c r="B142" t="s">
-        <v>273</v>
-      </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>274</v>
       </c>
@@ -4138,13 +4129,13 @@
         <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>276</v>
       </c>
@@ -4152,18 +4143,18 @@
         <v>275</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -4172,12 +4163,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -4186,12 +4177,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -4200,12 +4191,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -4214,12 +4205,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -4228,68 +4219,68 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" t="s">
         <v>283</v>
       </c>
-      <c r="B150" t="s">
-        <v>278</v>
-      </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" t="s">
         <v>14</v>
       </c>
-      <c r="D151" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B152" t="s">
-        <v>286</v>
-      </c>
-      <c r="C152" t="s">
-        <v>10</v>
-      </c>
       <c r="D152" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" t="s">
         <v>287</v>
       </c>
-      <c r="B153" t="s">
-        <v>288</v>
-      </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -4298,12 +4289,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -4312,12 +4303,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>292</v>
+        <v>561</v>
       </c>
       <c r="B156" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -4326,63 +4317,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B157" t="s">
-        <v>290</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" t="s">
         <v>296</v>
       </c>
-      <c r="B160" t="s">
-        <v>297</v>
-      </c>
       <c r="C160" t="s">
         <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>298</v>
       </c>
@@ -4390,13 +4381,13 @@
         <v>299</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>300</v>
       </c>
@@ -4404,13 +4395,13 @@
         <v>299</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>301</v>
       </c>
@@ -4418,74 +4409,74 @@
         <v>302</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B166" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B167" t="s">
+        <v>310</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B166" t="s">
-        <v>307</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B167" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C168" t="s">
         <v>10</v>
@@ -4494,40 +4485,40 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B170" t="s">
         <v>314</v>
       </c>
-      <c r="B170" t="s">
-        <v>315</v>
-      </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -4536,12 +4527,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
@@ -4550,82 +4541,82 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B173" t="s">
         <v>319</v>
       </c>
-      <c r="B173" t="s">
-        <v>317</v>
-      </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B174" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B176" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" t="s">
         <v>325</v>
       </c>
-      <c r="B177" t="s">
-        <v>326</v>
-      </c>
       <c r="C177" t="s">
         <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B178" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C178" t="s">
         <v>10</v>
@@ -4634,12 +4625,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>329</v>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>328</v>
       </c>
       <c r="B179" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C179" t="s">
         <v>10</v>
@@ -4648,96 +4639,96 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B180" t="s">
         <v>330</v>
       </c>
-      <c r="B180" t="s">
-        <v>328</v>
-      </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B184" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" t="s">
         <v>338</v>
       </c>
-      <c r="B185" t="s">
-        <v>339</v>
-      </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>340</v>
+        <v>562</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C186" t="s">
         <v>10</v>
@@ -4746,12 +4737,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B187" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
@@ -4760,12 +4751,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>565</v>
+        <v>341</v>
       </c>
       <c r="B188" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C188" t="s">
         <v>10</v>
@@ -4774,12 +4765,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B189" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -4788,12 +4779,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B190" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C190" t="s">
         <v>10</v>
@@ -4802,12 +4793,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B191" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
         <v>10</v>
@@ -4816,12 +4807,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>346</v>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>345</v>
       </c>
       <c r="B192" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C192" t="s">
         <v>10</v>
@@ -4830,12 +4821,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>347</v>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>340</v>
       </c>
       <c r="B193" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C193" t="s">
         <v>10</v>
@@ -4844,26 +4835,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B194" t="s">
+        <v>347</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B194" t="s">
-        <v>341</v>
-      </c>
-      <c r="C194" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>343</v>
-      </c>
       <c r="B195" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C195" t="s">
         <v>10</v>
@@ -4872,35 +4863,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B196" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" t="s">
         <v>351</v>
       </c>
-      <c r="B197" t="s">
-        <v>352</v>
-      </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>353</v>
       </c>
@@ -4908,74 +4899,74 @@
         <v>354</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B199" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B200" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B201" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B202" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B203" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C203" t="s">
         <v>18</v>
@@ -4984,189 +4975,189 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B204" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C204" t="s">
         <v>18</v>
       </c>
       <c r="D204" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B205" t="s">
+        <v>368</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B206" t="s">
+        <v>370</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B207" t="s">
+        <v>372</v>
+      </c>
+      <c r="C207" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B208" t="s">
+        <v>374</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B205" t="s">
-        <v>367</v>
-      </c>
-      <c r="C205" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B206" t="s">
-        <v>369</v>
-      </c>
-      <c r="C206" t="s">
-        <v>18</v>
-      </c>
-      <c r="D206" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B207" t="s">
-        <v>371</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B209" t="s">
+        <v>376</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B210" t="s">
+        <v>378</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B211" t="s">
+        <v>380</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212" t="s">
+        <v>380</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B213" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B214" t="s">
+        <v>384</v>
+      </c>
+      <c r="C214" t="s">
         <v>14</v>
       </c>
-      <c r="D207" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B208" t="s">
-        <v>373</v>
-      </c>
-      <c r="C208" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B209" t="s">
-        <v>375</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B215" t="s">
+        <v>386</v>
+      </c>
+      <c r="C215" t="s">
         <v>33</v>
       </c>
-      <c r="D209" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B210" t="s">
-        <v>377</v>
-      </c>
-      <c r="C210" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B211" t="s">
-        <v>379</v>
-      </c>
-      <c r="C211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B212" t="s">
-        <v>381</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B213" t="s">
-        <v>383</v>
-      </c>
-      <c r="C213" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B214" t="s">
-        <v>383</v>
-      </c>
-      <c r="C214" t="s">
-        <v>10</v>
-      </c>
-      <c r="D214" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B215" t="s">
-        <v>385</v>
-      </c>
-      <c r="C215" t="s">
-        <v>10</v>
-      </c>
       <c r="D215" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B216" t="s">
         <v>386</v>
       </c>
-      <c r="B216" t="s">
-        <v>387</v>
-      </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>388</v>
       </c>
@@ -5174,158 +5165,158 @@
         <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B218" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B219" t="s">
+        <v>393</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B220" t="s">
+        <v>395</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B221" t="s">
+        <v>397</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B222" t="s">
+        <v>399</v>
+      </c>
+      <c r="C222" t="s">
         <v>33</v>
       </c>
-      <c r="D218" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B219" t="s">
-        <v>392</v>
-      </c>
-      <c r="C219" t="s">
-        <v>24</v>
-      </c>
-      <c r="D219" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B220" t="s">
-        <v>394</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="D222" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B223" t="s">
+        <v>401</v>
+      </c>
+      <c r="C223" t="s">
+        <v>33</v>
+      </c>
+      <c r="D223" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B224" t="s">
+        <v>403</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225" t="s">
+        <v>405</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B226" t="s">
+        <v>407</v>
+      </c>
+      <c r="C226" t="s">
         <v>14</v>
       </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B221" t="s">
-        <v>396</v>
-      </c>
-      <c r="C221" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B222" t="s">
-        <v>398</v>
-      </c>
-      <c r="C222" t="s">
-        <v>6</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B223" t="s">
-        <v>400</v>
-      </c>
-      <c r="C223" t="s">
+      <c r="D226" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B227" t="s">
+        <v>407</v>
+      </c>
+      <c r="C227" t="s">
         <v>14</v>
       </c>
-      <c r="D223" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B224" t="s">
-        <v>402</v>
-      </c>
-      <c r="C224" t="s">
-        <v>33</v>
-      </c>
-      <c r="D224" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B225" t="s">
-        <v>404</v>
-      </c>
-      <c r="C225" t="s">
-        <v>33</v>
-      </c>
-      <c r="D225" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B226" t="s">
-        <v>406</v>
-      </c>
-      <c r="C226" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B227" t="s">
-        <v>408</v>
-      </c>
-      <c r="C227" t="s">
-        <v>6</v>
-      </c>
       <c r="D227" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B228" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -5334,12 +5325,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B229" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -5348,12 +5339,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B230" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -5362,12 +5353,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B231" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -5376,77 +5367,77 @@
         <v>108</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" t="s">
         <v>414</v>
       </c>
-      <c r="B232" t="s">
-        <v>410</v>
-      </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D232" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B233" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B235" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B236" t="s">
-        <v>421</v>
+        <v>571</v>
       </c>
       <c r="C236" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>422</v>
       </c>
@@ -5454,18 +5445,18 @@
         <v>423</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B238" t="s">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="C238" t="s">
         <v>10</v>
@@ -5474,7 +5465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>425</v>
       </c>
@@ -5482,55 +5473,55 @@
         <v>426</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B240" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B241" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C241" t="s">
         <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B242" t="s">
         <v>430</v>
       </c>
-      <c r="B242" t="s">
-        <v>431</v>
-      </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>432</v>
       </c>
@@ -5541,99 +5532,99 @@
         <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B244" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D244" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D245" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B246" t="s">
+        <v>439</v>
+      </c>
+      <c r="C246" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B246" t="s">
-        <v>438</v>
-      </c>
-      <c r="C246" t="s">
-        <v>14</v>
-      </c>
-      <c r="D246" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B247" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C247" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B248" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C248" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B249" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B250" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C250" t="s">
         <v>10</v>
@@ -5642,21 +5633,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B251" t="s">
         <v>447</v>
       </c>
-      <c r="B251" t="s">
-        <v>448</v>
-      </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>449</v>
       </c>
@@ -5664,55 +5655,55 @@
         <v>450</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B253" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D253" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B254" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B255" t="s">
         <v>454</v>
       </c>
-      <c r="B255" t="s">
-        <v>455</v>
-      </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>456</v>
       </c>
@@ -5720,13 +5711,13 @@
         <v>457</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>458</v>
       </c>
@@ -5734,13 +5725,13 @@
         <v>457</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>459</v>
       </c>
@@ -5751,99 +5742,99 @@
         <v>10</v>
       </c>
       <c r="D258" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B259" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
       </c>
       <c r="D259" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B260" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B261" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B262" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C262" t="s">
         <v>18</v>
       </c>
       <c r="D262" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B263" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B264" t="s">
         <v>470</v>
       </c>
-      <c r="B264" t="s">
-        <v>471</v>
-      </c>
       <c r="C264" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B265" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C265" t="s">
         <v>24</v>
@@ -5852,147 +5843,147 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B266" t="s">
         <v>474</v>
       </c>
-      <c r="B266" t="s">
-        <v>473</v>
-      </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B267" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C267" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B268" t="s">
+        <v>478</v>
+      </c>
+      <c r="C268" t="s">
+        <v>18</v>
+      </c>
+      <c r="D268" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B269" t="s">
+        <v>480</v>
+      </c>
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B270" t="s">
+        <v>482</v>
+      </c>
+      <c r="C270" t="s">
         <v>24</v>
       </c>
-      <c r="D267" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B268" t="s">
-        <v>477</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="D270" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B271" t="s">
+        <v>484</v>
+      </c>
+      <c r="C271" t="s">
+        <v>24</v>
+      </c>
+      <c r="D271" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B272" t="s">
+        <v>486</v>
+      </c>
+      <c r="C272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B273" t="s">
+        <v>488</v>
+      </c>
+      <c r="C273" t="s">
+        <v>33</v>
+      </c>
+      <c r="D273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B274" t="s">
+        <v>490</v>
+      </c>
+      <c r="C274" t="s">
         <v>6</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D274" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B269" t="s">
-        <v>479</v>
-      </c>
-      <c r="C269" t="s">
-        <v>18</v>
-      </c>
-      <c r="D269" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B270" t="s">
-        <v>481</v>
-      </c>
-      <c r="C270" t="s">
-        <v>18</v>
-      </c>
-      <c r="D270" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B271" t="s">
-        <v>483</v>
-      </c>
-      <c r="C271" t="s">
-        <v>14</v>
-      </c>
-      <c r="D271" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B272" t="s">
-        <v>485</v>
-      </c>
-      <c r="C272" t="s">
-        <v>24</v>
-      </c>
-      <c r="D272" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B273" t="s">
-        <v>487</v>
-      </c>
-      <c r="C273" t="s">
-        <v>24</v>
-      </c>
-      <c r="D273" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B274" t="s">
-        <v>489</v>
-      </c>
-      <c r="C274" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B275" t="s">
         <v>490</v>
       </c>
-      <c r="B275" t="s">
-        <v>491</v>
-      </c>
       <c r="C275" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>492</v>
       </c>
@@ -6000,88 +5991,88 @@
         <v>493</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B277" t="s">
+        <v>495</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B277" t="s">
-        <v>493</v>
-      </c>
-      <c r="C277" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="1" t="s">
+      <c r="B278" t="s">
         <v>495</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
+        <v>24</v>
+      </c>
+      <c r="D278" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C278" t="s">
-        <v>18</v>
-      </c>
-      <c r="D278" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="B279" t="s">
+        <v>497</v>
+      </c>
+      <c r="C279" t="s">
+        <v>33</v>
+      </c>
+      <c r="D279" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C279" t="s">
-        <v>24</v>
-      </c>
-      <c r="D279" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="B280" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C280" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B281" t="s">
         <v>499</v>
       </c>
-      <c r="B281" t="s">
-        <v>500</v>
-      </c>
       <c r="C281" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B282" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -6090,12 +6081,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="B283" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -6104,12 +6095,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B284" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -6118,12 +6109,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="B285" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
@@ -6132,12 +6123,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B286" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
@@ -6146,40 +6137,40 @@
         <v>108</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B287" t="s">
         <v>506</v>
       </c>
-      <c r="B287" t="s">
-        <v>502</v>
-      </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D287" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B288" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B289" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C289" t="s">
         <v>18</v>
@@ -6188,12 +6179,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B290" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C290" t="s">
         <v>18</v>
@@ -6202,12 +6193,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B291" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C291" t="s">
         <v>18</v>
@@ -6216,12 +6207,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B292" t="s">
         <v>512</v>
-      </c>
-      <c r="B292" t="s">
-        <v>509</v>
       </c>
       <c r="C292" t="s">
         <v>18</v>
@@ -6230,68 +6221,68 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B293" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B294" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C294" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B295" t="s">
         <v>517</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D295" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B296" t="s">
+        <v>517</v>
+      </c>
+      <c r="C296" t="s">
+        <v>76</v>
+      </c>
+      <c r="D296" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="B297" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C297" t="s">
         <v>76</v>
@@ -6300,12 +6291,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B298" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C298" t="s">
         <v>76</v>
@@ -6314,12 +6305,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="1" t="s">
-        <v>522</v>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>519</v>
       </c>
       <c r="B299" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C299" t="s">
         <v>76</v>
@@ -6328,40 +6319,40 @@
         <v>76</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B300" t="s">
+        <v>522</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B300" t="s">
-        <v>520</v>
-      </c>
-      <c r="C300" t="s">
-        <v>76</v>
-      </c>
-      <c r="D300" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>522</v>
-      </c>
       <c r="B301" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C301" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D301" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B302" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -6370,21 +6361,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B303" t="s">
         <v>526</v>
       </c>
-      <c r="B303" t="s">
-        <v>527</v>
-      </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>528</v>
       </c>
@@ -6395,10 +6386,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>530</v>
       </c>
@@ -6409,15 +6400,15 @@
         <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B306" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -6426,40 +6417,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B307" t="s">
         <v>533</v>
-      </c>
-      <c r="B307" t="s">
-        <v>532</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B308" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B309" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -6468,12 +6459,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B310" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
@@ -6482,35 +6473,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B311" t="s">
         <v>538</v>
       </c>
-      <c r="B311" t="s">
-        <v>536</v>
-      </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B312" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>540</v>
       </c>
@@ -6518,46 +6509,46 @@
         <v>541</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D313" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B314" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B315" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C315" t="s">
         <v>33</v>
       </c>
       <c r="D315" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B316" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C316" t="s">
         <v>24</v>
@@ -6566,26 +6557,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B317" t="s">
         <v>547</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
+        <v>24</v>
+      </c>
+      <c r="D317" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C317" t="s">
-        <v>33</v>
-      </c>
-      <c r="D317" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="B318" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C318" t="s">
         <v>24</v>
@@ -6594,54 +6585,54 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="B319" t="s">
         <v>550</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D319" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B320" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="C320" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D320" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B321" t="s">
+        <v>572</v>
+      </c>
+      <c r="C321" t="s">
+        <v>18</v>
+      </c>
+      <c r="D321" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C321" t="s">
-        <v>18</v>
-      </c>
-      <c r="D321" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="B322" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C322" t="s">
         <v>18</v>
@@ -6650,12 +6641,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
-        <v>555</v>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="B323" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C323" t="s">
         <v>18</v>
@@ -6664,12 +6655,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="2" t="s">
-        <v>556</v>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B324" t="s">
-        <v>575</v>
+        <v>117</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -6678,12 +6669,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="2" t="s">
-        <v>557</v>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="B325" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C325" t="s">
         <v>18</v>
@@ -6692,12 +6683,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B326" t="s">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="C326" t="s">
         <v>18</v>
@@ -6706,64 +6697,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B327" t="s">
         <v>558</v>
       </c>
-      <c r="B327" t="s">
-        <v>575</v>
-      </c>
       <c r="C327" t="s">
         <v>18</v>
       </c>
       <c r="D327" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B328" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C328" t="s">
         <v>18</v>
       </c>
       <c r="D328" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B329" t="s">
-        <v>561</v>
-      </c>
-      <c r="C329" t="s">
-        <v>18</v>
-      </c>
-      <c r="D329" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B330" t="s">
-        <v>563</v>
-      </c>
-      <c r="C330" t="s">
-        <v>18</v>
-      </c>
-      <c r="D330" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="1"/>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/original_data/country.xlsx
+++ b/original_data/country.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungyeonhan/Documents/GitHub/FinalExam_VA/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungyeonhan/Documents/GitHub/FinalExam_Visual/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264436E2-D171-9842-A914-25E22A7BA3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7846142-BA46-B246-AB24-50DFEE8C256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="24040" windowHeight="16000" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
   </bookViews>
@@ -2124,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1EAFB1-A9CD-0C49-B612-1C17B69961CD}">
   <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:XFD131"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/original_data/country.xlsx
+++ b/original_data/country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungyeonhan/Documents/GitHub/FinalExam_Visual/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7846142-BA46-B246-AB24-50DFEE8C256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67906D57-26E4-7149-BA2E-8161BF8E6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="24040" windowHeight="16000" xr2:uid="{78F09CA9-44AF-2243-908F-78B3C114ADBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="574">
   <si>
     <t>Name</t>
   </si>
@@ -1755,6 +1755,9 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>The Democratic Republic of the Congo</t>
   </si>
 </sst>
 </file>
@@ -2122,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1EAFB1-A9CD-0C49-B612-1C17B69961CD}">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="F322" sqref="F322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6643,7 +6646,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="B323" t="s">
         <v>572</v>
@@ -6656,11 +6659,11 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>564</v>
+      <c r="A324" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="B324" t="s">
-        <v>117</v>
+        <v>572</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -6671,10 +6674,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B325" t="s">
-        <v>572</v>
+        <v>117</v>
       </c>
       <c r="C325" t="s">
         <v>18</v>
@@ -6685,7 +6688,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B326" t="s">
         <v>572</v>
@@ -6699,24 +6702,24 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B327" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="C327" t="s">
         <v>18</v>
       </c>
       <c r="D327" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B328" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C328" t="s">
         <v>18</v>
@@ -6726,7 +6729,21 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B329" t="s">
+        <v>560</v>
+      </c>
+      <c r="C329" t="s">
+        <v>18</v>
+      </c>
+      <c r="D329" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
